--- a/data/trans_dic/P36B06_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B06_R-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6073612107078914</v>
+        <v>0.6121249525587649</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6832968871676341</v>
+        <v>0.6858323846252855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6468375695950134</v>
+        <v>0.6457185478419553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6262932003048121</v>
+        <v>0.6234764292924834</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7280280817258876</v>
+        <v>0.7305964889850743</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6150729152822573</v>
+        <v>0.6110018834234985</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6329187790720739</v>
+        <v>0.6294468110566676</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.717705082268466</v>
+        <v>0.7158714987760658</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6440008507138347</v>
+        <v>0.6462174425074535</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6951658146043646</v>
+        <v>0.696873768951788</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7723600306492906</v>
+        <v>0.7712981339777163</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7374363954405772</v>
+        <v>0.7383520878721772</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7090260321875592</v>
+        <v>0.7082664624614446</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8085184201096992</v>
+        <v>0.812196905870696</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7121982526385231</v>
+        <v>0.7102191866253124</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6911211456040119</v>
+        <v>0.6912359579019121</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7772175984456938</v>
+        <v>0.7780764038052177</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7107743783748853</v>
+        <v>0.7124507262641403</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6903954259833853</v>
+        <v>0.6883533546015183</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7273251752853725</v>
+        <v>0.7311000570629057</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7096432375672233</v>
+        <v>0.708084559929037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7496468063552388</v>
+        <v>0.7514740949117638</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8202324770888768</v>
+        <v>0.8140210286449354</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7160355401034536</v>
+        <v>0.7177436322525218</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.722330320423163</v>
+        <v>0.7271864310573009</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7786289861609161</v>
+        <v>0.781789980077639</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7257409637073778</v>
+        <v>0.7212272047034054</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7577257424357882</v>
+        <v>0.754465169429976</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7954045790006045</v>
+        <v>0.7972403973261021</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7814561991651254</v>
+        <v>0.7801347753412947</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8135654624198476</v>
+        <v>0.8163968608499244</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8780984592185789</v>
+        <v>0.8750977637457475</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7855332876186345</v>
+        <v>0.7867193328885699</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7727626111746575</v>
+        <v>0.7736136330376194</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8252123601684905</v>
+        <v>0.8257949617830286</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7754872328084621</v>
+        <v>0.7725101378636643</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7401929380072714</v>
+        <v>0.7371936867216252</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7921224355922482</v>
+        <v>0.7944990867313677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7391719079643347</v>
+        <v>0.740152088664951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7920462813229217</v>
+        <v>0.7886993075762792</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8408662013565079</v>
+        <v>0.8421983044079113</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8161117582799605</v>
+        <v>0.8132576001532391</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7743589481264066</v>
+        <v>0.7714902444698026</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8277278366153223</v>
+        <v>0.8284451832928371</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7864903990628314</v>
+        <v>0.787789767011424</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8065281463314686</v>
+        <v>0.8043332872224087</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8506655257231036</v>
+        <v>0.8526245542110198</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8043721261659489</v>
+        <v>0.805056999283541</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8470106486134734</v>
+        <v>0.8487869832502724</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8959380441661545</v>
+        <v>0.8939500609809935</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8691841076278495</v>
+        <v>0.8691510803444739</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8203563574638745</v>
+        <v>0.8206382470082143</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8686575628184572</v>
+        <v>0.8692135444089143</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8298006592132666</v>
+        <v>0.8308744420040001</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7514651468123856</v>
+        <v>0.7503119579848746</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8373730006970909</v>
+        <v>0.8358639179979047</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7680564121996099</v>
+        <v>0.7658943990419528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8204634772187442</v>
+        <v>0.8229485537223615</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8793751179622457</v>
+        <v>0.8792109087149974</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8338519802286327</v>
+        <v>0.8300924731462709</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7952736153499166</v>
+        <v>0.7961434620662614</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8685650893119962</v>
+        <v>0.8669317793287965</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8084502532795154</v>
+        <v>0.8095084163277603</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8250124547099404</v>
+        <v>0.8221755001347505</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8967214488919572</v>
+        <v>0.89664715385834</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8337458410615086</v>
+        <v>0.8340376515017356</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8834113668677077</v>
+        <v>0.8860883410986886</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9298310133942614</v>
+        <v>0.9299205959588157</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.891503889168126</v>
+        <v>0.8892489365711774</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8454515863306324</v>
+        <v>0.8420717060779302</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9057692550315058</v>
+        <v>0.9047710269614965</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8526696069333773</v>
+        <v>0.852330114185989</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7724230205930853</v>
+        <v>0.7725241189692884</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8618995140723029</v>
+        <v>0.8646323462621883</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.828223313029944</v>
+        <v>0.8281497217544889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.834370780359066</v>
+        <v>0.82990815314624</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8365113980426107</v>
+        <v>0.8415465574216768</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8503948247117683</v>
+        <v>0.8464255528271726</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8153769220607923</v>
+        <v>0.813258318317701</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8603537061465545</v>
+        <v>0.8609019438101866</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8491738891731118</v>
+        <v>0.8445523958997412</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8487003244038455</v>
+        <v>0.8497945517572553</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9209682721247701</v>
+        <v>0.9227246097251471</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.892033759696977</v>
+        <v>0.8908979615911895</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8991161821321009</v>
+        <v>0.8987878441458901</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9065687563197206</v>
+        <v>0.9091807405892697</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.90989793721538</v>
+        <v>0.9128789828536256</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.867478321720585</v>
+        <v>0.8647981960777407</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9079497874242007</v>
+        <v>0.906904082421453</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8923441802373859</v>
+        <v>0.8911869390095436</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8087961656073204</v>
+        <v>0.802921065408983</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8770808593682929</v>
+        <v>0.8731702782190388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8747074987433192</v>
+        <v>0.8768157029789027</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8522737589376047</v>
+        <v>0.8566478454647717</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9153625105556535</v>
+        <v>0.9109518877676324</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8722388471448136</v>
+        <v>0.872997829135964</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8448869586097789</v>
+        <v>0.8446557750750471</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9044027699091043</v>
+        <v>0.9046809060228118</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8843408093125281</v>
+        <v>0.8872313712076781</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8871290210124216</v>
+        <v>0.8859798552053977</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9395519466324208</v>
+        <v>0.9422146118041526</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9409179033401724</v>
+        <v>0.9419349181307177</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9186879776680815</v>
+        <v>0.923537649795343</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9639607617406306</v>
+        <v>0.9624637463948249</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9325973053103119</v>
+        <v>0.933410883771827</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8959830974427904</v>
+        <v>0.8952330250744681</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9458745462047218</v>
+        <v>0.945293111880848</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9284518644154716</v>
+        <v>0.9297704709963703</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7841762385758451</v>
+        <v>0.7907389295076193</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9157508197610966</v>
+        <v>0.9175481501587421</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8606839460421353</v>
+        <v>0.8633362832054087</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8259052602023675</v>
+        <v>0.8270037185082154</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9195348334429105</v>
+        <v>0.9216643065573189</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8979969859778035</v>
+        <v>0.8928257648950969</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.825869868062391</v>
+        <v>0.8265575511594226</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9304411154285125</v>
+        <v>0.9273739370047086</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8918878450489223</v>
+        <v>0.8936513263351482</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8891633350253773</v>
+        <v>0.8891350640225439</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9781618145030768</v>
+        <v>0.9785040686642821</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9306522642925577</v>
+        <v>0.933671948786972</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9040900447503579</v>
+        <v>0.9057832395493945</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9680900397126193</v>
+        <v>0.9677108673202308</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.957701133497707</v>
+        <v>0.951685900152632</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8878782205471065</v>
+        <v>0.8860262838262437</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9674179239150034</v>
+        <v>0.9668188456186712</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9363635973161513</v>
+        <v>0.9376127660857319</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7472838513074984</v>
+        <v>0.7476885112648533</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8208331059233854</v>
+        <v>0.8194471350238296</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7860248371076513</v>
+        <v>0.7845249070426741</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8024462380335544</v>
+        <v>0.8016321527696091</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8661523099731465</v>
+        <v>0.8661271599095631</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8213906501999677</v>
+        <v>0.8207376027752409</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7790242503005844</v>
+        <v>0.7803849106857826</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8473197714758804</v>
+        <v>0.8475823931239564</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8072745826193918</v>
+        <v>0.8078070045467235</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.776302676384144</v>
+        <v>0.7764388177083755</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8471589330775644</v>
+        <v>0.8467680524131014</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8146805223479382</v>
+        <v>0.8141507883786339</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8290435107601938</v>
+        <v>0.8283081018421964</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8884237513159238</v>
+        <v>0.8878365702009164</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8463978260736812</v>
+        <v>0.8455225564596968</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7996922178556836</v>
+        <v>0.7990826702231252</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.863852179062813</v>
+        <v>0.8648598947793267</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8258342279724606</v>
+        <v>0.8263516886496638</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>299442</v>
+        <v>301791</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>310317</v>
+        <v>311468</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>270686</v>
+        <v>270218</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>292121</v>
+        <v>290807</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>313220</v>
+        <v>314325</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>242806</v>
+        <v>241198</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>607255</v>
+        <v>603923</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>634721</v>
+        <v>633100</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>523724</v>
+        <v>525527</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>342732</v>
+        <v>343574</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>350764</v>
+        <v>350282</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>308599</v>
+        <v>308983</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>330710</v>
+        <v>330356</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>347849</v>
+        <v>349431</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>281147</v>
+        <v>280365</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>663097</v>
+        <v>663207</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>687353</v>
+        <v>688112</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>578027</v>
+        <v>579390</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>507124</v>
+        <v>505624</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>499038</v>
+        <v>501628</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>418344</v>
+        <v>417425</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>468900</v>
+        <v>470043</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>499742</v>
+        <v>495958</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>403518</v>
+        <v>404480</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>982394</v>
+        <v>988998</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1008634</v>
+        <v>1012729</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>836821</v>
+        <v>831616</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>556581</v>
+        <v>554186</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>545749</v>
+        <v>547009</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>460679</v>
+        <v>459900</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>508880</v>
+        <v>510651</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>534998</v>
+        <v>533170</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>442683</v>
+        <v>443351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1050983</v>
+        <v>1052141</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1068978</v>
+        <v>1069733</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>894181</v>
+        <v>890748</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>472085</v>
+        <v>470172</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>540119</v>
+        <v>541740</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>493229</v>
+        <v>493884</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>546309</v>
+        <v>544001</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>596739</v>
+        <v>597685</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>538435</v>
+        <v>536552</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1027985</v>
+        <v>1024176</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1151811</v>
+        <v>1152810</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1043696</v>
+        <v>1045420</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>514392</v>
+        <v>512993</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>580037</v>
+        <v>581373</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>536736</v>
+        <v>537193</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>584221</v>
+        <v>585446</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>635822</v>
+        <v>634411</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>573449</v>
+        <v>573428</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1089048</v>
+        <v>1089422</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1208767</v>
+        <v>1209540</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1101170</v>
+        <v>1102594</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>390121</v>
+        <v>389522</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>512945</v>
+        <v>512020</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>496201</v>
+        <v>494805</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>422265</v>
+        <v>423544</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>540937</v>
+        <v>540836</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>540307</v>
+        <v>537871</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>822164</v>
+        <v>823063</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1066340</v>
+        <v>1064335</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1046145</v>
+        <v>1047514</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>428303</v>
+        <v>426830</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>549299</v>
+        <v>549254</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>538640</v>
+        <v>538828</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>454662</v>
+        <v>456040</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>571974</v>
+        <v>572029</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>577663</v>
+        <v>576202</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>874039</v>
+        <v>870545</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1112016</v>
+        <v>1110790</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1103366</v>
+        <v>1102926</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>298704</v>
+        <v>298743</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>370125</v>
+        <v>371298</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>394954</v>
+        <v>394919</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>337074</v>
+        <v>335271</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>374590</v>
+        <v>376845</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>422518</v>
+        <v>420546</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>644715</v>
+        <v>643040</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>754727</v>
+        <v>755208</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>826856</v>
+        <v>822356</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>328201</v>
+        <v>328624</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>395490</v>
+        <v>396245</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>425383</v>
+        <v>424842</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>363230</v>
+        <v>363098</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>405961</v>
+        <v>407131</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>452082</v>
+        <v>453563</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>685912</v>
+        <v>683792</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>796480</v>
+        <v>795563</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>868892</v>
+        <v>867765</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>236640</v>
+        <v>234921</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>270846</v>
+        <v>269638</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>291515</v>
+        <v>292217</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>292274</v>
+        <v>293774</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>324035</v>
+        <v>322473</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>327675</v>
+        <v>327960</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>536940</v>
+        <v>536793</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>599438</v>
+        <v>599623</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>626946</v>
+        <v>628996</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>259559</v>
+        <v>259223</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>290137</v>
+        <v>290960</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>313581</v>
+        <v>313920</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>315049</v>
+        <v>316712</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>341238</v>
+        <v>340708</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>350350</v>
+        <v>350655</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>569412</v>
+        <v>568936</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>626926</v>
+        <v>626540</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>658219</v>
+        <v>659153</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>164585</v>
+        <v>165963</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>227822</v>
+        <v>228269</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>220421</v>
+        <v>221100</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>275776</v>
+        <v>276143</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>353899</v>
+        <v>354718</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>359351</v>
+        <v>357281</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>449101</v>
+        <v>449475</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>589573</v>
+        <v>587630</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>585318</v>
+        <v>586476</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>186620</v>
+        <v>186614</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>243349</v>
+        <v>243434</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>238340</v>
+        <v>239113</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>301883</v>
+        <v>302448</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>372586</v>
+        <v>372440</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>383242</v>
+        <v>380835</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>482820</v>
+        <v>481813</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>613003</v>
+        <v>612624</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>614506</v>
+        <v>615326</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2446361</v>
+        <v>2447686</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2808659</v>
+        <v>2803916</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2662698</v>
+        <v>2657617</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2709991</v>
+        <v>2707242</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3075683</v>
+        <v>3075593</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2906665</v>
+        <v>2904354</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>5181160</v>
+        <v>5190210</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>5908097</v>
+        <v>5909928</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>5591396</v>
+        <v>5595084</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2541360</v>
+        <v>2541805</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2898738</v>
+        <v>2897401</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2759771</v>
+        <v>2757977</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2799814</v>
+        <v>2797331</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>3154768</v>
+        <v>3152683</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2995158</v>
+        <v>2992061</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>5318619</v>
+        <v>5314565</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>6023373</v>
+        <v>6030399</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>5719945</v>
+        <v>5723529</v>
       </c>
     </row>
     <row r="36">
